--- a/data/trans_media/Q57-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q57-Provincia-trans_media.xlsx
@@ -639,22 +639,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,66</t>
+          <t>7,19; 7,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 8,07</t>
+          <t>7,84; 8,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,44</t>
+          <t>6,98; 7,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,93</t>
+          <t>7,78; 7,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,02</t>
+          <t>7,77; 8,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 9,13</t>
+          <t>8,81; 9,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 7,96</t>
+          <t>7,73; 7,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 8,91</t>
+          <t>8,65; 8,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 8,11</t>
+          <t>7,87; 8,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,21</t>
+          <t>7,76; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,17 +814,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,96</t>
+          <t>7,63; 7,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,96</t>
+          <t>7,78; 7,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,01</t>
+          <t>7,74; 8,02</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,06</t>
+          <t>7,7; 8,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,82; 8,21</t>
+          <t>7,83; 8,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,67</t>
+          <t>7,24; 7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,81</t>
+          <t>7,55; 7,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 8,14</t>
+          <t>7,89; 8,14</t>
         </is>
       </c>
     </row>
@@ -964,22 +964,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 8,34</t>
+          <t>8,07; 8,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 6,95</t>
+          <t>6,53; 6,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 8,25</t>
+          <t>8,02; 8,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 7,03</t>
+          <t>6,71; 7,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 8,22</t>
+          <t>7,82; 8,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,15</t>
+          <t>7,73; 8,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,91</t>
+          <t>7,38; 7,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,11</t>
+          <t>7,69; 8,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 8,02</t>
+          <t>7,68; 8,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 8,07</t>
+          <t>7,78; 8,08</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 7,84</t>
+          <t>7,63; 7,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,31</t>
+          <t>8,03; 8,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,67</t>
+          <t>7,41; 7,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,04</t>
+          <t>7,52; 8,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,72</t>
+          <t>7,56; 7,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 8,11</t>
+          <t>7,75; 8,12</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,62; 8,03</t>
+          <t>7,62; 8,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,3</t>
+          <t>7,07; 7,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,32</t>
+          <t>7,05; 7,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,39</t>
+          <t>7,24; 7,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,62</t>
+          <t>7,37; 7,64</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,39; 7,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,93</t>
+          <t>7,79; 7,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,6</t>
+          <t>7,53; 7,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">

--- a/data/trans_media/Q57-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q57-Provincia-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,67</t>
+          <t>7,19; 7,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,44</t>
+          <t>6,96; 7,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,49</t>
+          <t>7,15; 7,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,0</t>
+          <t>7,76; 8,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,95</t>
+          <t>7,78; 7,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 8,1</t>
+          <t>7,87; 8,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,95</t>
+          <t>7,77; 7,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 8,09</t>
+          <t>7,71; 8,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,68</t>
+          <t>7,23; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,84</t>
+          <t>7,53; 7,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,23</t>
+          <t>6,75; 7,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 6,94</t>
+          <t>6,54; 6,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 7,02</t>
+          <t>6,71; 7,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 8,23</t>
+          <t>7,8; 8,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 7,92</t>
+          <t>7,4; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 8,01</t>
+          <t>7,67; 8,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,86</t>
+          <t>7,64; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 7,67</t>
+          <t>7,42; 7,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,73</t>
+          <t>7,55; 7,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,55</t>
+          <t>7,35; 7,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,29</t>
+          <t>7,06; 7,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,39</t>
+          <t>7,23; 7,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,5</t>
+          <t>7,39; 7,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,61</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
